--- a/Assets/Utils/Properties.xlsx
+++ b/Assets/Utils/Properties.xlsx
@@ -1,48 +1,421 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="12210" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>0无</t>
+  </si>
+  <si>
+    <t>1水（湿润）</t>
+  </si>
+  <si>
+    <t>2火（燃烧）</t>
+  </si>
+  <si>
+    <t>3风（吹拂）</t>
+  </si>
+  <si>
+    <t>4土</t>
+  </si>
+  <si>
+    <t>1水</t>
+  </si>
+  <si>
+    <t>-3蒸汽</t>
+  </si>
+  <si>
+    <t>-4冰</t>
+  </si>
+  <si>
+    <t>-5草</t>
+  </si>
+  <si>
+    <t>2火</t>
+  </si>
+  <si>
+    <t>3风</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,9 +423,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -60,11 +675,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1020,113 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Utils/Properties.xlsx
+++ b/Assets/Utils/Properties.xlsx
@@ -2,53 +2,275 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12210" windowHeight="5985"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="属性转化表" sheetId="1" r:id="rId1"/>
+    <sheet name="属性特效表" sheetId="3" r:id="rId2"/>
+    <sheet name="特效表" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>0无</t>
   </si>
   <si>
-    <t>1水（湿润）</t>
-  </si>
-  <si>
-    <t>2火（燃烧）</t>
-  </si>
-  <si>
-    <t>3风（吹拂）</t>
+    <t>1水</t>
+  </si>
+  <si>
+    <t>2火</t>
+  </si>
+  <si>
+    <t>3风</t>
   </si>
   <si>
     <t>4土</t>
   </si>
   <si>
-    <t>1水</t>
-  </si>
-  <si>
-    <t>-3蒸汽</t>
-  </si>
-  <si>
-    <t>-4冰</t>
-  </si>
-  <si>
-    <t>-5草</t>
-  </si>
-  <si>
-    <t>2火</t>
-  </si>
-  <si>
-    <t>3风</t>
+    <t>12蒸汽</t>
+  </si>
+  <si>
+    <t>13冰</t>
+  </si>
+  <si>
+    <t>14草</t>
+  </si>
+  <si>
+    <t>23雷</t>
+  </si>
+  <si>
+    <t>24熔岩</t>
+  </si>
+  <si>
+    <t>34沙</t>
+  </si>
+  <si>
+    <t>114毒</t>
+  </si>
+  <si>
+    <t>123麻痹</t>
+  </si>
+  <si>
+    <t>212灼热雾</t>
+  </si>
+  <si>
+    <t>234玻璃</t>
+  </si>
+  <si>
+    <t>313暴风雪</t>
+  </si>
+  <si>
+    <t>314孢子</t>
+  </si>
+  <si>
+    <t>324金属</t>
+  </si>
+  <si>
+    <t>334沙尘暴</t>
+  </si>
+  <si>
+    <t>413冰面</t>
+  </si>
+  <si>
+    <t>1214毒云</t>
+  </si>
+  <si>
+    <t>1223雷云</t>
+  </si>
+  <si>
+    <t>己方特效</t>
+  </si>
+  <si>
+    <t>敌方特效</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>湿润</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>吹拂</t>
+  </si>
+  <si>
+    <t>泥泞</t>
+  </si>
+  <si>
+    <t>遮蔽</t>
+  </si>
+  <si>
+    <t>目盲</t>
+  </si>
+  <si>
+    <t>寒冰，铠甲</t>
+  </si>
+  <si>
+    <t>寒冰</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>惊醒</t>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>灼烧，铠甲</t>
+  </si>
+  <si>
+    <t>灼烧、泥泞</t>
+  </si>
+  <si>
+    <t>干旱</t>
+  </si>
+  <si>
+    <t>遮蔽，灼烧</t>
+  </si>
+  <si>
+    <t>目盲，灼烧</t>
+  </si>
+  <si>
+    <t>遮蔽，冻结</t>
+  </si>
+  <si>
+    <t>目盲，冻结</t>
+  </si>
+  <si>
+    <t>击倒，寒冰</t>
+  </si>
+  <si>
+    <t>剧毒</t>
+  </si>
+  <si>
+    <t>寄生</t>
+  </si>
+  <si>
+    <t>遮蔽，中毒</t>
+  </si>
+  <si>
+    <t>目盲，中毒</t>
+  </si>
+  <si>
+    <t>遮蔽，麻痹</t>
+  </si>
+  <si>
+    <t>目盲，麻痹</t>
+  </si>
+  <si>
+    <t>铠甲</t>
+  </si>
+  <si>
+    <t>刺伤</t>
+  </si>
+  <si>
+    <t>反射</t>
+  </si>
+  <si>
+    <t>遮蔽，干旱</t>
+  </si>
+  <si>
+    <t>目盲，干旱</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
+    <t>初始化伤害数值</t>
+  </si>
+  <si>
+    <t>每回合伤害数值</t>
+  </si>
+  <si>
+    <t>持续回合</t>
+  </si>
+  <si>
+    <t>抗性变化</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>火抗+10，雷抗-30</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水抗+10，冰抗+20</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>冰抗-20</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>雷抗+30，闪避-10</t>
+  </si>
+  <si>
+    <t>闪避+10</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>火抗+10，物抗-20</t>
+  </si>
+  <si>
+    <t>恢复hp</t>
+  </si>
+  <si>
+    <t>驱除眩晕</t>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>跳过回合</t>
+  </si>
+  <si>
+    <t>击倒</t>
+  </si>
+  <si>
+    <t>物理抗性-30</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>恢复伤害的hp</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>物理</t>
   </si>
 </sst>
 </file>
@@ -56,37 +278,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -101,6 +301,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -108,29 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +330,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -153,14 +347,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,23 +385,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,15 +422,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,13 +445,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,91 +523,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,73 +595,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +642,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,6 +695,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,220 +742,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,68 +1250,331 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="K9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1100,14 +1587,269 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1117,14 +1859,523 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Assets/Utils/Properties.xlsx
+++ b/Assets/Utils/Properties.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="属性转化表" sheetId="1" r:id="rId1"/>
+    <sheet name="元素属性转化表" sheetId="1" r:id="rId1"/>
     <sheet name="属性特效表" sheetId="3" r:id="rId2"/>
     <sheet name="特效表" sheetId="2" r:id="rId3"/>
+    <sheet name="属性表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>0无</t>
   </si>
@@ -271,6 +272,42 @@
   </si>
   <si>
     <t>物理</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>蓝量</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>物抗</t>
   </si>
 </sst>
 </file>
@@ -278,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -289,21 +326,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,52 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -378,9 +354,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,14 +377,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,15 +457,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +488,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,156 +662,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -620,18 +669,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,41 +682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,17 +702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +738,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +799,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,7 +1627,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1861,8 +1898,8 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2380,4 +2417,69 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>